--- a/biology/Botanique/Sesbania_dalzielii/Sesbania_dalzielii.xlsx
+++ b/biology/Botanique/Sesbania_dalzielii/Sesbania_dalzielii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sesbania dalzielii est une espèce de plantes de la famille des Fabaceae et du genre Sesbania, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sesbania dalzielii est une espèce de plantes de la famille des Fabaceae et du genre Sesbania, présente en Afrique tropicale.
 Son épithète spécifique dalzielii rend hommage au botaniste britannique John McEwan Dalziel.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle (ou sous-arbuste grêle), de 0,5 à 2 m de hauteur, avec des branches légèrement pubescentes et des fleurs jaunes[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle (ou sous-arbuste grêle), de 0,5 à 2 m de hauteur, avec des branches légèrement pubescentes et des fleurs jaunes,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans l'ouest de l'Afrique tropicale, du Sénégal au nord du Nigeria[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans l'ouest de l'Afrique tropicale, du Sénégal au nord du Nigeria,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les endroits marécageux, les mares, au bord des cours d'eau[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les endroits marécageux, les mares, au bord des cours d'eau.
 </t>
         </is>
       </c>
